--- a/docs/input calcs.xlsx
+++ b/docs/input calcs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21555" windowHeight="7965" tabRatio="536"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21555" windowHeight="7965" tabRatio="536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Expected Conversions" sheetId="11" r:id="rId2"/>
-    <sheet name="EC Chart" sheetId="12" r:id="rId3"/>
-    <sheet name="Scaled 70 Chart" sheetId="14" r:id="rId4"/>
-    <sheet name="Scaled 70" sheetId="13" r:id="rId5"/>
+    <sheet name="EC Chart 2" sheetId="15" r:id="rId2"/>
+    <sheet name="Expected Conversions" sheetId="11" r:id="rId3"/>
+    <sheet name="EC Chart" sheetId="12" r:id="rId4"/>
+    <sheet name="Scaled 70 Chart" sheetId="14" r:id="rId5"/>
+    <sheet name="Scaled 70" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Raw Input</t>
   </si>
@@ -170,6 +171,906 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Expected Conversions'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaled (90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$B$18:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A8A-4B42-B546-2A06B024ECBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Expected Conversions'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaled (70)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$C$18:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-102.85714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-77.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.428571428571445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.142857142857167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A8A-4B42-B546-2A06B024ECBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Expected Conversions'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaled (50)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$D$18:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A8A-4B42-B546-2A06B024ECBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Expected Conversions'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaled (30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Expected Conversions'!$E$18:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A8A-4B42-B546-2A06B024ECBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788747664"/>
+        <c:axId val="782098560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788747664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Raw Input</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782098560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782098560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Scaled Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788747664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -989,7 +1890,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3263,6 +4164,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4334,11 +5275,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4356,11 +5813,55 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0FE837-D59A-42BB-95E4-DD7E2BEFB814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4389,7 +5890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4721,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" activeCellId="3" sqref="F2:F14 K2:K14 P2:P14 U2:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,23 +6310,23 @@
         <v>-90</v>
       </c>
       <c r="C2">
-        <f>((($A2-$A$17)*$F$17)/$C$17)+$D$17</f>
+        <f t="shared" ref="C2:C14" si="0">((($A2-$A$17)*$F$17)/$C$17)+$D$17</f>
         <v>-90</v>
       </c>
       <c r="D2" t="b">
-        <f>IF(AND($D$17&lt;C2, C2&lt;$E$17),C2,FALSE)</f>
+        <f t="shared" ref="D2:D14" si="1">IF(AND($D$17&lt;C2, C2&lt;$E$17),C2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E2">
         <v>-90</v>
       </c>
       <c r="F2">
-        <f>(((E2-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" ref="F2:F14" si="2">(((E2-$A$23)*$F$23)/$C$23)+$D$23</f>
+        <v>-120</v>
       </c>
       <c r="H2">
-        <f>((($A2-$A$18)*$F$17)/$C$18)+$A$18</f>
-        <v>-95.714285714285722</v>
+        <f>((($A2-$A$18)*$F$17)/$C$18)+$D$17</f>
+        <v>-115.71428571428572</v>
       </c>
       <c r="I2" t="b">
         <f>IF(AND($D$17&lt;H2, H2&lt;$E$17),H2,FALSE)</f>
@@ -4835,12 +6336,12 @@
         <v>-90</v>
       </c>
       <c r="K2">
-        <f>(((J2-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" ref="K2:K14" si="3">(((J2-$A$23)*$F$23)/$C$23)+$D$23</f>
+        <v>-120</v>
       </c>
       <c r="M2">
-        <f>((($A2-$A$19)*$F$17)/$C$19)+$A$19</f>
-        <v>-122</v>
+        <f>((($A2-$A$19)*$F$17)/$C$19)+$D$17</f>
+        <v>-162</v>
       </c>
       <c r="N2" t="b">
         <f>IF(AND($D$17&lt;M2, M2&lt;$E$17),M2,FALSE)</f>
@@ -4850,12 +6351,12 @@
         <v>-90</v>
       </c>
       <c r="P2">
-        <f>(((O2-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" ref="P2:P14" si="4">(((O2-$A$23)*$F$23)/$C$23)+$D$23</f>
+        <v>-120</v>
       </c>
       <c r="R2">
-        <f>((($A2-$A$20)*$F$17)/$C$20)+$A$20</f>
-        <v>-210</v>
+        <f>((($A2-$A$20)*$F$17)/$C$20)+$D$17</f>
+        <v>-270</v>
       </c>
       <c r="S2" t="b">
         <f>IF(AND($D$17&lt;R2, R2&lt;$E$17),R2,FALSE)</f>
@@ -4865,8 +6366,8 @@
         <v>-90</v>
       </c>
       <c r="U2">
-        <f>(((T2-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" ref="U2:U14" si="5">(((T2-$A$23)*$F$23)/$C$23)+$D$23</f>
+        <v>-120</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4875,790 +6376,790 @@
         <v>-75</v>
       </c>
       <c r="C3">
-        <f>((($A3-$A$17)*$F$17)/$C$17)+$D$17</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
       <c r="D3">
-        <f>IF(AND($D$17&lt;C3, C3&lt;$E$17),C3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>-75</v>
       </c>
       <c r="E3">
         <v>-75</v>
       </c>
       <c r="F3">
-        <f>(((E3-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-33.25</v>
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="0">((($A3-$A$18)*$F$17)/$C$18)+$A$18</f>
-        <v>-76.428571428571431</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I14" si="1">IF(AND($D$17&lt;H3, H3&lt;$E$17),H3,FALSE)</f>
-        <v>-76.428571428571431</v>
+        <f t="shared" ref="H3:H14" si="6">((($A3-$A$18)*$F$17)/$C$18)+$D$17</f>
+        <v>-96.428571428571431</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I14" si="7">IF(AND($D$17&lt;H3, H3&lt;$E$17),H3,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-76.428571428571431</v>
+        <v>-90</v>
       </c>
       <c r="K3">
-        <f>(((J3-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-33.797619047619051</v>
+        <f t="shared" si="3"/>
+        <v>-120</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M14" si="2">((($A3-$A$19)*$F$17)/$C$19)+$A$19</f>
-        <v>-95</v>
+        <f t="shared" ref="M3:M14" si="8">((($A3-$A$19)*$F$17)/$C$19)+$D$17</f>
+        <v>-135</v>
       </c>
       <c r="N3" t="b">
-        <f t="shared" ref="N3:O14" si="3">IF(AND($D$17&lt;M3, M3&lt;$E$17),M3,FALSE)</f>
+        <f t="shared" ref="N3:N14" si="9">IF(AND($D$17&lt;M3, M3&lt;$E$17),M3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O3">
         <v>-90</v>
       </c>
       <c r="P3">
-        <f>(((O3-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" si="4"/>
+        <v>-120</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R14" si="4">((($A3-$A$20)*$F$17)/$C$20)+$A$20</f>
-        <v>-165</v>
+        <f t="shared" ref="R3:R14" si="10">((($A3-$A$20)*$F$17)/$C$20)+$D$17</f>
+        <v>-225</v>
       </c>
       <c r="S3" t="b">
-        <f t="shared" ref="S3:S14" si="5">IF(AND($D$17&lt;R3, R3&lt;$E$17),R3,FALSE)</f>
+        <f t="shared" ref="S3:S14" si="11">IF(AND($D$17&lt;R3, R3&lt;$E$17),R3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T3">
         <v>-90</v>
       </c>
       <c r="U3">
-        <f>(((T3-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
+        <f t="shared" si="5"/>
+        <v>-120</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="6">A3+15</f>
+        <f t="shared" ref="A4:A14" si="12">A3+15</f>
         <v>-60</v>
       </c>
       <c r="C4">
-        <f>((($A4-$A$17)*$F$17)/$C$17)+$D$17</f>
+        <f t="shared" si="0"/>
         <v>-60</v>
       </c>
       <c r="D4">
-        <f>IF(AND($D$17&lt;C4, C4&lt;$E$17),C4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>-60</v>
       </c>
       <c r="E4">
         <v>-60</v>
       </c>
       <c r="F4">
-        <f>(((E4-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-27.5</v>
+        <f t="shared" si="2"/>
+        <v>-80</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>-57.142857142857139</v>
+        <f t="shared" si="6"/>
+        <v>-77.142857142857139</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>-57.142857142857139</v>
+        <f t="shared" si="7"/>
+        <v>-77.142857142857139</v>
       </c>
       <c r="J4">
-        <v>-57.142857142857139</v>
+        <v>-77.142857142857139</v>
       </c>
       <c r="K4">
-        <f>(((J4-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-26.404761904761905</v>
+        <f t="shared" si="3"/>
+        <v>-102.85714285714285</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>-68</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>-68</v>
+        <f t="shared" si="8"/>
+        <v>-108</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>-68</v>
+        <v>-90</v>
       </c>
       <c r="P4">
-        <f>(((O4-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-30.566666666666666</v>
-      </c>
-      <c r="R4">
         <f t="shared" si="4"/>
         <v>-120</v>
       </c>
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>-180</v>
+      </c>
       <c r="S4" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-90</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="12"/>
+        <v>-45</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="E5">
+        <v>-45</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-60</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>-57.857142857142854</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>-57.857142857142854</v>
+      </c>
+      <c r="J5">
+        <v>-57.857142857142854</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-77.142857142857139</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>-81</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>-81</v>
+      </c>
+      <c r="O5">
+        <v>-81</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>-108</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>-135</v>
+      </c>
+      <c r="S5" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>-90</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="12"/>
+        <v>-30</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="E6">
+        <v>-30</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>-38.571428571428569</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>-38.571428571428569</v>
+      </c>
+      <c r="J6">
+        <v>-38.571428571428569</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>-51.428571428571431</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>-54</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>-54</v>
+      </c>
+      <c r="O6">
+        <v>-54</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>-72</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>-90</v>
+      </c>
+      <c r="S6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-90</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="E7">
+        <v>-15</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>-19.285714285714292</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>-19.285714285714292</v>
+      </c>
+      <c r="J7">
+        <v>-19.285714285714292</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-25.714285714285722</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>-27</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>-27</v>
+      </c>
+      <c r="O7">
+        <v>-27</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>-36</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>-45</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>-45</v>
+      </c>
+      <c r="T7">
+        <v>-45</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>-90</v>
-      </c>
-      <c r="U4">
-        <f>(((T4-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="6"/>
-        <v>-45</v>
-      </c>
-      <c r="C5">
-        <f>((($A5-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>-45</v>
-      </c>
-      <c r="D5">
-        <f>IF(AND($D$17&lt;C5, C5&lt;$E$17),C5,FALSE)</f>
-        <v>-45</v>
-      </c>
-      <c r="E5">
-        <v>-45</v>
-      </c>
-      <c r="F5">
-        <f>(((E5-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-21.75</v>
-      </c>
-      <c r="H5">
+        <v>19.285714285714292</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>19.285714285714292</v>
+      </c>
+      <c r="J9">
+        <v>19.285714285714292</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>25.714285714285722</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>27</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>45</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>-37.857142857142854</v>
-      </c>
-      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
-        <v>-37.857142857142854</v>
-      </c>
-      <c r="J5">
-        <v>-37.857142857142854</v>
-      </c>
-      <c r="K5">
-        <f>(((J5-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-19.011904761904759</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>-41</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>-41</v>
-      </c>
-      <c r="O5">
-        <v>-41</v>
-      </c>
-      <c r="P5">
-        <f>(((O5-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-20.216666666666665</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>-75</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>-75</v>
-      </c>
-      <c r="T5">
-        <v>-75</v>
-      </c>
-      <c r="U5">
-        <f>(((T5-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-33.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="6"/>
-        <v>-30</v>
-      </c>
-      <c r="C6">
-        <f>((($A6-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>-30</v>
-      </c>
-      <c r="D6">
-        <f>IF(AND($D$17&lt;C6, C6&lt;$E$17),C6,FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="E6">
-        <v>-30</v>
-      </c>
-      <c r="F6">
-        <f>(((E6-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-16</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>-18.571428571428569</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>-18.571428571428569</v>
-      </c>
-      <c r="J6">
-        <v>-18.571428571428569</v>
-      </c>
-      <c r="K6">
-        <f>(((J6-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-11.61904761904762</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>-14</v>
-      </c>
-      <c r="O6">
-        <v>-14</v>
-      </c>
-      <c r="P6">
-        <f>(((O6-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-9.8666666666666671</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>-30</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>-30</v>
-      </c>
-      <c r="T6">
-        <v>-30</v>
-      </c>
-      <c r="U6">
-        <f>(((T6-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="6"/>
-        <v>-15</v>
-      </c>
-      <c r="C7">
-        <f>((($A7-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>-15</v>
-      </c>
-      <c r="D7">
-        <f>IF(AND($D$17&lt;C7, C7&lt;$E$17),C7,FALSE)</f>
-        <v>-15</v>
-      </c>
-      <c r="E7">
-        <v>-15</v>
-      </c>
-      <c r="F7">
-        <f>(((E7-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-10.25</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857082</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857082</v>
-      </c>
-      <c r="J7">
-        <v>0.7142857142857082</v>
-      </c>
-      <c r="K7">
-        <f>(((J7-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-4.2261904761904816</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="O7">
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <f>(((O7-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>0.48333333333333428</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="T7">
-        <v>15</v>
-      </c>
-      <c r="U7">
-        <f>(((T7-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>((($A8-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>IF(AND($D$17&lt;C8, C8&lt;$E$17),C8,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>(((E8-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>-4.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <f>(((J8-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>3.1666666666666643</v>
-      </c>
-      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N8">
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>38.571428571428584</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>38.571428571428584</v>
+      </c>
+      <c r="J10">
+        <v>38.571428571428584</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="O8">
-        <v>40</v>
-      </c>
-      <c r="P8">
-        <f>(((O8-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>10.833333333333336</v>
-      </c>
-      <c r="R8">
+        <v>51.428571428571445</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <v>54</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="T8">
-        <v>60</v>
-      </c>
-      <c r="U8">
-        <f>(((T8-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <f>((($A9-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <f>IF(AND($D$17&lt;C9, C9&lt;$E$17),C9,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <f>(((E9-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>1.25</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>39.285714285714292</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>39.285714285714292</v>
-      </c>
-      <c r="J9">
-        <v>39.285714285714292</v>
-      </c>
-      <c r="K9">
-        <f>(((J9-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>10.559523809523803</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="O9">
-        <v>67</v>
-      </c>
-      <c r="P9">
-        <f>(((O9-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>21.18333333333333</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="S9" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
+        <v>72</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="U9">
-        <f>(((T9-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <f>((($A10-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <f>IF(AND($D$17&lt;C10, C10&lt;$E$17),C10,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <f>(((E10-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>58.571428571428584</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>58.571428571428584</v>
-      </c>
-      <c r="J10">
-        <v>58.571428571428584</v>
-      </c>
-      <c r="K10">
-        <f>(((J10-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>17.952380952380956</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="N10" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>90</v>
-      </c>
-      <c r="P10">
-        <f>(((O10-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
       <c r="S10" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T10">
         <v>90</v>
       </c>
       <c r="U10">
-        <f>(((T10-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="C11">
-        <f>((($A11-$A$17)*$F$17)/$C$17)+$D$17</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D11">
-        <f>IF(AND($D$17&lt;C11, C11&lt;$E$17),C11,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E11">
         <v>45</v>
       </c>
       <c r="F11">
-        <f>(((E11-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>12.75</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>77.857142857142861</v>
+        <f t="shared" si="6"/>
+        <v>57.857142857142861</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>77.857142857142861</v>
+        <f t="shared" si="7"/>
+        <v>57.857142857142861</v>
       </c>
       <c r="J11">
-        <v>77.857142857142861</v>
+        <v>57.857142857142861</v>
       </c>
       <c r="K11">
-        <f>(((J11-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>25.345238095238088</v>
+        <f t="shared" si="3"/>
+        <v>77.142857142857167</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="N11" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>81</v>
       </c>
       <c r="O11">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="P11">
-        <f>(((O11-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f t="shared" si="10"/>
+        <v>135</v>
       </c>
       <c r="S11" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T11">
         <v>90</v>
       </c>
       <c r="U11">
-        <f>(((T11-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="C12">
-        <f>((($A12-$A$17)*$F$17)/$C$17)+$D$17</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D12">
-        <f>IF(AND($D$17&lt;C12, C12&lt;$E$17),C12,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E12">
         <v>60</v>
       </c>
       <c r="F12">
-        <f>(((E12-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>18.5</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="H12">
+        <f t="shared" si="6"/>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="J12">
+        <v>77.142857142857139</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>102.85714285714283</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="S12" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>90</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>97.142857142857139</v>
-      </c>
-      <c r="I12" t="b">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>96.428571428571416</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="S13" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>90</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D14" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>90</v>
-      </c>
-      <c r="K12">
-        <f>(((J12-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="N12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>90</v>
-      </c>
-      <c r="P12">
-        <f>(((O12-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="S12" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>90</v>
-      </c>
-      <c r="U12">
-        <f>(((T12-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <f>((($A13-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>75</v>
-      </c>
-      <c r="D13">
-        <f>IF(AND($D$17&lt;C13, C13&lt;$E$17),C13,FALSE)</f>
-        <v>75</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <f>(((E13-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>24.25</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>116.42857142857142</v>
-      </c>
-      <c r="I13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>90</v>
-      </c>
-      <c r="K13">
-        <f>(((J13-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="N13" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>90</v>
-      </c>
-      <c r="P13">
-        <f>(((O13-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="4"/>
-        <v>285</v>
-      </c>
-      <c r="S13" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>90</v>
-      </c>
-      <c r="U13">
-        <f>(((T13-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <f>((($A14-$A$17)*$F$17)/$C$17)+$D$17</f>
-        <v>90</v>
-      </c>
-      <c r="D14" t="b">
-        <f>IF(AND($D$17&lt;C14, C14&lt;$E$17),C14,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>90</v>
       </c>
       <c r="F14">
-        <f>(((E14-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>135.71428571428572</v>
+        <f t="shared" si="6"/>
+        <v>115.71428571428572</v>
       </c>
       <c r="I14" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J14">
         <v>90</v>
       </c>
       <c r="K14">
-        <f>(((J14-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>202</v>
+        <f t="shared" si="8"/>
+        <v>162</v>
       </c>
       <c r="N14" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O14">
         <v>90</v>
       </c>
       <c r="P14">
-        <f>(((O14-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
-        <v>330</v>
+        <f t="shared" si="10"/>
+        <v>270</v>
       </c>
       <c r="S14" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T14">
         <v>90</v>
       </c>
       <c r="U14">
-        <f>(((T14-$A$23)*$F$23)/$C$23)+$D$23</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5723,7 +7224,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C20" si="7">B19-A19</f>
+        <f t="shared" ref="C19:C20" si="13">B19-A19</f>
         <v>100</v>
       </c>
     </row>
@@ -5735,7 +7236,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
     </row>
@@ -5771,14 +7272,14 @@
         <v>180</v>
       </c>
       <c r="D23">
-        <v>-39</v>
+        <v>-120</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <f>E23-D23</f>
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5788,10 +7289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,6 +7551,256 @@
       </c>
       <c r="E14">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-90</v>
+      </c>
+      <c r="B18">
+        <v>-120</v>
+      </c>
+      <c r="C18">
+        <v>-120</v>
+      </c>
+      <c r="D18">
+        <v>-120</v>
+      </c>
+      <c r="E18">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18+15</f>
+        <v>-75</v>
+      </c>
+      <c r="B19">
+        <v>-100</v>
+      </c>
+      <c r="C19">
+        <v>-120</v>
+      </c>
+      <c r="D19">
+        <v>-120</v>
+      </c>
+      <c r="E19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:A30" si="1">A19+15</f>
+        <v>-60</v>
+      </c>
+      <c r="B20">
+        <v>-80</v>
+      </c>
+      <c r="C20">
+        <v>-102.85714285714285</v>
+      </c>
+      <c r="D20">
+        <v>-120</v>
+      </c>
+      <c r="E20">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="B21">
+        <v>-60</v>
+      </c>
+      <c r="C21">
+        <v>-77.142857142857139</v>
+      </c>
+      <c r="D21">
+        <v>-108</v>
+      </c>
+      <c r="E21">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="B22">
+        <v>-40</v>
+      </c>
+      <c r="C22">
+        <v>-51.428571428571431</v>
+      </c>
+      <c r="D22">
+        <v>-72</v>
+      </c>
+      <c r="E22">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="B23">
+        <v>-20</v>
+      </c>
+      <c r="C23">
+        <v>-25.714285714285722</v>
+      </c>
+      <c r="D23">
+        <v>-36</v>
+      </c>
+      <c r="E23">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>25.714285714285722</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>51.428571428571445</v>
+      </c>
+      <c r="D26">
+        <v>72</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>77.142857142857167</v>
+      </c>
+      <c r="D27">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>102.85714285714283</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
